--- a/Model + Exp. Data CSVs/Riad 12.7 Comparison Data.xlsx
+++ b/Model + Exp. Data CSVs/Riad 12.7 Comparison Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Documents\GitHub\LGG-Code\Model + Exp. Data CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F54C658-802C-4D37-8730-59919060ECBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84E028D-22B5-4651-9CC3-8EB53DECE205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2310" windowWidth="28800" windowHeight="12690" xr2:uid="{E7689873-C5AA-4273-A958-7F1BCBDEA818}"/>
+    <workbookView xWindow="-28800" yWindow="2835" windowWidth="14400" windowHeight="15120" activeTab="1" xr2:uid="{E7689873-C5AA-4273-A958-7F1BCBDEA818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Charge Mass</t>
   </si>
@@ -55,6 +56,15 @@
   </si>
   <si>
     <t>M Pr Vel</t>
+  </si>
+  <si>
+    <t>M1 Vel</t>
+  </si>
+  <si>
+    <t>M2 Vel</t>
+  </si>
+  <si>
+    <t>%error</t>
   </si>
 </sst>
 </file>
@@ -406,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B5CAC1-B4B3-4ED9-9AAA-A7FBD725AEE1}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,8 +446,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -459,8 +475,14 @@
       <c r="G2">
         <v>849.59100000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>818</v>
+      </c>
+      <c r="I2">
+        <v>874.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -482,8 +504,14 @@
       <c r="G3">
         <v>931.23699999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>901.3</v>
+      </c>
+      <c r="I3">
+        <v>936.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -505,8 +533,14 @@
       <c r="G4">
         <v>1010.958</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>981</v>
+      </c>
+      <c r="I4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -528,8 +562,14 @@
       <c r="G5">
         <v>1089.877</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1059</v>
+      </c>
+      <c r="I5">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -550,6 +590,155 @@
       </c>
       <c r="G6">
         <v>1168.827</v>
+      </c>
+      <c r="H6">
+        <v>1132</v>
+      </c>
+      <c r="I6">
+        <v>1128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D87643-A5D7-4653-AC35-734544C60CBA}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.98</v>
+      </c>
+      <c r="D2">
+        <v>5210</v>
+      </c>
+      <c r="G2">
+        <v>5147.134</v>
+      </c>
+      <c r="J2">
+        <f>(G2-D2)/G2 *100</f>
+        <v>-1.2213787323197722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.98</v>
+      </c>
+      <c r="D3">
+        <v>4860</v>
+      </c>
+      <c r="G3">
+        <v>4715.9660000000003</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J7" si="0">(G3-D3)/G3 *100</f>
+        <v>-3.0541780835569985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.98</v>
+      </c>
+      <c r="D4">
+        <v>5270</v>
+      </c>
+      <c r="G4">
+        <v>5133</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>-2.6690044808104423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.98</v>
+      </c>
+      <c r="D5">
+        <v>5420</v>
+      </c>
+      <c r="G5">
+        <v>4820.59</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>-12.434370066734566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.98</v>
+      </c>
+      <c r="D6">
+        <v>4410</v>
+      </c>
+      <c r="G6">
+        <v>5588.4110000000001</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>21.086691726861179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.98</v>
+      </c>
+      <c r="D7">
+        <v>4690</v>
+      </c>
+      <c r="G7">
+        <v>4837.9669999999996</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>3.058454098591405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f>AVERAGE(J2:J5,J7)</f>
+        <v>-3.2640954529660746</v>
       </c>
     </row>
   </sheetData>
